--- a/report/reliability/comb/Faculdade de Economia, Administração e Contabilidade - FEAC-Graduação (bacharelado)-Presencial.xlsx
+++ b/report/reliability/comb/Faculdade de Economia, Administração e Contabilidade - FEAC-Graduação (bacharelado)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8275465822954021</v>
+        <v>0.7957432661551908</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8463486821220993</v>
+        <v>0.8217410639059145</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.918823681981407</v>
+        <v>0.9096551474472723</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.3146085241901993</v>
+        <v>0.2617754039217108</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>5.508242257932684</v>
+        <v>4.609816943326745</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.017052517179843046</v>
+        <v>0.018488849606763395</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.901345291479821</v>
+        <v>2.263194204898241</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8829355917141509</v>
+        <v>0.742795535220575</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.28238613170097593</v>
+        <v>0.22634410340983904</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8077531277000316</v>
+        <v>0.798951645094999</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8226837909799932</v>
+        <v>0.821954856863475</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9002510653419421</v>
+        <v>0.9103188199747222</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.2966591076256351</v>
+        <v>0.27782856466612493</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>4.63964234023957</v>
+        <v>4.6165530964986825</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.01899583133277811</v>
+        <v>0.018744786061380844</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03404390758340866</v>
+        <v>0.05252237132658168</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.277222122032745</v>
+        <v>0.24678968051131822</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8131163330797864</v>
+        <v>0.7729778077203352</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.8311731805216844</v>
+        <v>0.7965879271819665</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9043410868050421</v>
+        <v>0.8947085409832763</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.30918536406994507</v>
+        <v>0.24604783214437864</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>4.9232295146592</v>
+        <v>3.9161290485180342</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.018488100698121037</v>
+        <v>0.020410859443517376</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.0350160973692877</v>
+        <v>0.05415914205891518</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.29130388511610134</v>
+        <v>0.19414587071743394</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.8070514695419017</v>
+        <v>0.7803253100156482</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8229459975000294</v>
+        <v>0.8057317735297741</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9005294700762714</v>
+        <v>0.8988185099004073</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.29703450954480143</v>
+        <v>0.2568519253960616</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>4.647994317440897</v>
+        <v>4.147522156193991</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.01906628836519576</v>
+        <v>0.019752896633956483</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03503693955288409</v>
+        <v>0.054950878747291286</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.2745015069632842</v>
+        <v>0.20225248536007667</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8111159762847</v>
+        <v>0.782584596922607</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8297094986614583</v>
+        <v>0.8033307880921294</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9038612183208258</v>
+        <v>0.8929758451253984</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.30696953631464774</v>
+        <v>0.25394847569992585</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>4.8723181395301385</v>
+        <v>4.0846799572698185</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.018677711592150304</v>
+        <v>0.020119881559239886</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.034751469384113914</v>
+        <v>0.04229288569377612</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.2811567000602069</v>
+        <v>0.22634410340983904</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8073243592090021</v>
+        <v>0.760716924788684</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8340325194926694</v>
+        <v>0.7988541786773137</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8892641045281817</v>
+        <v>0.8906593766826888</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.3135843968224085</v>
+        <v>0.2486625086957921</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>5.025276740619265</v>
+        <v>3.9715176453790697</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.01946216319148966</v>
+        <v>0.02229764416651635</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.030407638073018453</v>
+        <v>0.04245316242057257</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2811567000602069</v>
+        <v>0.2184014052707164</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8099020065239019</v>
+        <v>0.7646352428187143</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8346319101112483</v>
+        <v>0.7998649846708115</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8895199157697203</v>
+        <v>0.891667769220992</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.31451856568781295</v>
+        <v>0.24984185230985323</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>5.047115865417148</v>
+        <v>3.9966268938754586</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.01921309894468011</v>
+        <v>0.021904855541901802</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.030331713306153252</v>
+        <v>0.042596291756793254</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2836155633417449</v>
+        <v>0.22159573632908336</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8292589400355412</v>
+        <v>0.7973797838578905</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.850371827204377</v>
+        <v>0.8268292327044575</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9114191804808346</v>
+        <v>0.9111087285595791</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.34065539064799316</v>
+        <v>0.2846347100958289</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>5.683233386575529</v>
+        <v>4.774646700579359</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.016808549731628097</v>
+        <v>0.01877087127552569</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.02991287858909406</v>
+        <v>0.04881663947498237</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2967113145896429</v>
+        <v>0.24881332099631442</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8292150775761203</v>
+        <v>0.7956734446202284</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8463683598302562</v>
+        <v>0.8210816299611617</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9098761265639349</v>
+        <v>0.9010672193597398</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.3336998330586126</v>
+        <v>0.2766352404595633</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>5.509075857649665</v>
+        <v>4.5891410132057855</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.016633563463035347</v>
+        <v>0.01796197378044008</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03285854099444992</v>
+        <v>0.049109734549845754</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.3102779788589199</v>
+        <v>0.24881332099631442</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.8170062025021699</v>
+        <v>0.7948914497012025</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8384709863105956</v>
+        <v>0.8160799257492958</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.917374496895594</v>
+        <v>0.9033005500043415</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.3206034292265466</v>
+        <v>0.2699461831712467</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>5.190838272081859</v>
+        <v>4.437144390431707</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.018239069099762747</v>
+        <v>0.01774965658020853</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.037471764076139946</v>
+        <v>0.05288220318847897</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2797887390958634</v>
+        <v>0.24881332099631442</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.8143961361811586</v>
+        <v>0.7790610778304928</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8342921016384103</v>
+        <v>0.8106371679796969</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9135918577549726</v>
+        <v>0.9062486569643157</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.31398844625350947</v>
+        <v>0.26293853207950224</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>5.03471536292077</v>
+        <v>4.2808673662674295</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.018311057979910724</v>
+        <v>0.019943257150100778</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.03785229132239085</v>
+        <v>0.056162505540663744</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.2811567000602069</v>
+        <v>0.2184014052707164</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.8136384855449739</v>
+        <v>0.777713478744841</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.8335577407663369</v>
+        <v>0.8066662694339439</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9019528489656043</v>
+        <v>0.9024897919934975</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.3128474226137408</v>
+        <v>0.25799524800903234</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>5.00808955973213</v>
+        <v>4.172403165614868</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.018392756404874235</v>
+        <v>0.01982462699216967</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.03369504880439296</v>
+        <v>0.056659774228089904</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.2811567000602069</v>
+        <v>0.22566361067554344</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8150506030891077</v>
+        <v>0.7770092964162678</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8352945844735066</v>
+        <v>0.8075191538777559</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9035047577916419</v>
+        <v>0.892538834513668</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.315556288416738</v>
+        <v>0.25904530323032565</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>5.071445779748185</v>
+        <v>4.195322132805372</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.018318958138528067</v>
+        <v>0.019924633793590933</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.033924831368421886</v>
+        <v>0.052679094353978856</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.2811567000602069</v>
+        <v>0.2184014052707164</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7774255432268926</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.8072423983590881</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8933325592754005</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.25870387502460473</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>4.187862846845851</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.019944887963840967</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05336449477562593</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.2184014052707164</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>223.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6957615652102358</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.7446260584418496</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.7301261065371876</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.6386818887671325</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.672645739910314</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0550247403560267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>223.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6039971116574203</v>
+        <v>0.2989960062811239</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6504604839289526</v>
+        <v>0.42001388155986696</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6255439449526524</v>
+        <v>0.35298203958151847</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5270780365839901</v>
+        <v>0.28490785783914646</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.098654708520179</v>
+        <v>0.9775784753363229</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.1621461902979875</v>
+        <v>0.14838306247107708</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>223.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.7008529950690799</v>
+        <v>0.6498625457354689</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.7418039912465384</v>
+        <v>0.7058832105003484</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.7265313835783589</v>
+        <v>0.6851883967057322</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.6429904789039029</v>
+        <v>0.5796121598217309</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.695067264573991</v>
+        <v>3.672645739910314</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0806749934189475</v>
+        <v>1.0550247403560267</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>223.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.626306879340714</v>
+        <v>0.5522118414647508</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6671178703178429</v>
+        <v>0.608699834202914</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6444210415352555</v>
+        <v>0.5763238301060389</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.546902844220682</v>
+        <v>0.4599565306551565</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.143497757847534</v>
+        <v>4.098654708520179</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.240110558404783</v>
+        <v>1.1621461902979875</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>223.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.7123001831249203</v>
+        <v>0.7068422175877015</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.617390951281397</v>
+        <v>0.6348165140396305</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.6360658214906947</v>
+        <v>0.6579078282012736</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.5866401675739423</v>
+        <v>0.6796389248669663</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>2.367713004484305</v>
+        <v>0.5650224215246636</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>2.16008793367921</v>
+        <v>0.49686936528797726</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>223.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7059170871946809</v>
+        <v>0.7561518577557732</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6103683784725168</v>
+        <v>0.6823640600012995</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6286903421998253</v>
+        <v>0.7093948813992655</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.572815651241335</v>
+        <v>0.6311341438930083</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.4394618834080717</v>
+        <v>2.367713004484305</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.23499272972396</v>
+        <v>2.16008793367921</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>223.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.40250150085172937</v>
+        <v>0.7454733159760178</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.41388596177759307</v>
+        <v>0.6717558033378885</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3637879514493186</v>
+        <v>0.6974219183372666</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.2854196301115279</v>
+        <v>0.6106808925184167</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.6547085201793723</v>
+        <v>2.4394618834080717</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.3761359861927334</v>
+        <v>2.23499272972396</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>223.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.4690659477215075</v>
+        <v>0.28917939443928176</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.46617405593992167</v>
+        <v>0.3587922522179545</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.4185514792153532</v>
+        <v>0.2952906400314812</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.3286534679170049</v>
+        <v>0.2604446092119739</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.7488789237668163</v>
+        <v>0.9013452914798207</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7136668704658353</v>
+        <v>0.2988687109131117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>223.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5727601713530932</v>
+        <v>0.40150640894487544</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5646256880282612</v>
+        <v>0.4307478943742277</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4967183228217653</v>
+        <v>0.39519079980931476</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.45769173119930284</v>
+        <v>0.27211887479908864</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.9596412556053813</v>
+        <v>2.6547085201793723</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.597628833221521</v>
+        <v>1.3761359861927334</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>223.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5835540432271452</v>
+        <v>0.4768087960378556</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.6143535276919643</v>
+        <v>0.4909163098425331</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5595908069483136</v>
+        <v>0.4490284698996021</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.49507319770314656</v>
+        <v>0.32236698958010623</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.591928251121076</v>
+        <v>2.7488789237668163</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.2802474965750048</v>
+        <v>1.7136668704658353</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>223.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5931891788460685</v>
+        <v>0.5877028109474066</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6229311220474123</v>
+        <v>0.553950493012328</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6031890339684076</v>
+        <v>0.49048331114151733</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5026755010224048</v>
+        <v>0.4626754550961971</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.336322869955157</v>
+        <v>1.9596412556053813</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.325045953228907</v>
+        <v>1.597628833221521</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>223.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5753168009469473</v>
+        <v>0.5812979755156434</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6025673441101146</v>
+        <v>0.5984155883030186</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5798496315433985</v>
+        <v>0.548070362776437</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.49018988432149035</v>
+        <v>0.48289923742413904</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.591928251121076</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.2802474965750048</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>223.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5891141971681777</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5889702874039234</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5696758649988888</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.48809844929526486</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.336322869955157</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.325045953228907</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>223.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5844745088181826</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5920414517323104</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.571117858840302</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.49150313709895505</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.10762331838565</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2218304101492625</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.02242152466367713</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.04035874439461883</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.30493273542600896</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4439461883408072</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.18834080717488788</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.02242152466367713</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.004484304932735426</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.04484304932735426</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.242152466367713</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.15246636771300448</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.5336322869955157</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.017937219730941704</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.04932735426008968</v>
+        <v>0.9775784753363229</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.008968609865470852</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.27802690582959644</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4349775784753363</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.21076233183856502</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.017937219730941704</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.013452914798206279</v>
+        <v>0.04035874439461883</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.06726457399103139</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.242152466367713</v>
+        <v>0.30493273542600896</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.026905829596412557</v>
+        <v>0.4439461883408072</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.6322869955156951</v>
+        <v>0.18834080717488788</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.4349775784753363</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="C47" t="n" s="110">
         <v>0.004484304932735426</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.04484304932735426</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.09417040358744394</v>
+        <v>0.242152466367713</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.25112107623318386</v>
+        <v>0.15246636771300448</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.21524663677130046</v>
+        <v>0.5336322869955157</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.4349775784753363</v>
       </c>
       <c r="C48" t="n" s="110">
+        <v>0.5650224215246636</v>
+      </c>
+      <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
-      <c r="D48" t="n" s="111">
-        <v>0.004484304932735426</v>
-      </c>
       <c r="E48" t="n" s="112">
-        <v>0.1210762331838565</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.13004484304932734</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.3094170403587444</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.09865470852017937</v>
+        <v>0.4349775784753363</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.17937219730941703</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.017937219730941704</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.40358744394618834</v>
+        <v>0.09417040358744394</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.273542600896861</v>
+        <v>0.25112107623318386</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.026905829596412557</v>
+        <v>0.21524663677130046</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.09865470852017937</v>
+        <v>0.4349775784753363</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.2062780269058296</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.14349775784753363</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.21524663677130046</v>
+        <v>0.1210762331838565</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.07174887892376682</v>
+        <v>0.13004484304932734</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.2645739910313901</v>
+        <v>0.3094170403587444</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.32286995515695066</v>
+        <v>0.09865470852017937</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.09865470852017937</v>
+        <v>0.9013452914798207</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.09865470852017937</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.2556053811659193</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.2242152466367713</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.13004484304932734</v>
+        <v>0.09865470852017937</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.08520179372197309</v>
+        <v>0.17937219730941703</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.06726457399103139</v>
+        <v>0.017937219730941704</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4977578475336323</v>
+        <v>0.40358744394618834</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.21973094170403587</v>
+        <v>0.273542600896861</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.026905829596412557</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.14798206278026907</v>
+        <v>0.09865470852017937</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.05829596412556054</v>
+        <v>0.2062780269058296</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.3632286995515695</v>
+        <v>0.14349775784753363</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.17040358744394618</v>
+        <v>0.21524663677130046</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.2600896860986547</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.2645739910313901</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.15246636771300448</v>
+        <v>0.32286995515695066</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.06726457399103139</v>
+        <v>0.09865470852017937</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.47085201793721976</v>
+        <v>0.09865470852017937</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.13901345291479822</v>
+        <v>0.2556053811659193</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.17040358744394618</v>
+        <v>0.2242152466367713</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.13004484304932734</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.08520179372197309</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.06726457399103139</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4977578475336323</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.21973094170403587</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.14798206278026907</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.05829596412556054</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.3632286995515695</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.17040358744394618</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.2600896860986547</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.15246636771300448</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.06726457399103139</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.47085201793721976</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.13901345291479822</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.17040358744394618</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8579954029393326</v>
+        <v>0.8664913622086294</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8598448626846033</v>
+        <v>0.9877277169329249</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.867527547025722</v>
+        <v>0.9818848952444892</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6053261525787687</v>
+        <v>0.9640651559549586</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.134950734982045</v>
+        <v>80.48443077253212</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.015789342456497404</v>
+        <v>0.002129098936110968</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.9024663677130045</v>
+        <v>1.7907324364723467</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9519802582785329</v>
+        <v>1.614515553387865</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6346141408490712</v>
+        <v>0.9639048543129805</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8126360611744733</v>
+        <v>0.9836870948069416</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8122138099753313</v>
+        <v>0.9839774783656567</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7653991459675799</v>
+        <v>0.9684603022213132</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.590455160161183</v>
+        <v>0.9684603022213132</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.325205223390677</v>
+        <v>61.41214852577043</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.02161560212496986</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.014614950790380093</v>
-      </c>
+        <v>0.0021646140305908537</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6183674981583123</v>
+        <v>0.9684603022213133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.827063083757309</v>
+        <v>0.5782002465415697</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8304445925482141</v>
+        <v>0.9795034863798258</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.779899072039956</v>
+        <v>0.9598303113305822</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6201462816264489</v>
+        <v>0.9598303113305824</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.897777104421489</v>
+        <v>47.788785182262565</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.020120915987376933</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.008836524699993558</v>
-      </c>
+        <v>0.00735094221879092</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6508607835398301</v>
+        <v>0.9598303113305823</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8206260802765509</v>
+        <v>0.5926954589640328</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.823938207692185</v>
+        <v>0.981620725867778</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7696404897799394</v>
+        <v>0.9639048543129805</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6093660498691819</v>
+        <v>0.9639048543129805</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.679824037299727</v>
+        <v>53.40911283035035</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.020910872706222734</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.008203522266322441</v>
-      </c>
+        <v>0.006996635483099477</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6183674981583123</v>
+        <v>0.9639048543129805</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8165880212266661</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8190096045126389</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7775366290983466</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6013371186582613</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.525155063102962</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.021761590227217624</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.01588815213243214</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6508607835398301</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>223.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9753601460581852</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9864661873789321</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9751886443275442</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9695054792600556</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.5650224215246636</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.49686936528797726</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>223.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8415091095023515</v>
+        <v>0.9917370056198367</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8523366715416371</v>
+        <v>0.9893779402323136</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8007219388310916</v>
+        <v>0.9824257286722143</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7224272580918857</v>
+        <v>0.9734678864928256</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.672645739910314</v>
+        <v>2.367713004484305</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0550247403560267</v>
+        <v>2.16008793367921</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>223.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8291510401097384</v>
+        <v>0.991806780738698</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8257965323230422</v>
+        <v>0.9880031922974153</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7627369980411354</v>
+        <v>0.9792650548480459</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6838533618627414</v>
+        <v>0.9721963120012608</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.098654708520179</v>
+        <v>2.4394618834080717</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.1621461902979875</v>
+        <v>2.23499272972396</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>223.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8302385318547657</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8354327076349545</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7801829537906413</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7000474028512665</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.695067264573991</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0806749934189475</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>223.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8541942924212789</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8426095652812255</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7823388411505916</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7128655394213879</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.143497757847534</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.240110558404783</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.4349775784753363</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.5650224215246636</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.4349775784753363</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.004484304932735426</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.09417040358744394</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.25112107623318386</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.21524663677130046</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.02242152466367713</v>
+        <v>0.4349775784753363</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.04035874439461883</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.30493273542600896</v>
+        <v>0.1210762331838565</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4439461883408072</v>
+        <v>0.13004484304932734</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.18834080717488788</v>
+        <v>0.3094170403587444</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.02242152466367713</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.004484304932735426</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.04484304932735426</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.242152466367713</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.15246636771300448</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.5336322869955157</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.017937219730941704</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.04932735426008968</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.008968609865470852</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.27802690582959644</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4349775784753363</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.21076233183856502</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.017937219730941704</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.013452914798206279</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.06726457399103139</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.242152466367713</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.026905829596412557</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.6322869955156951</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8135604993153265</v>
+        <v>0.70675099988275</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8251048169555399</v>
+        <v>0.8330999383452572</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7022795129838546</v>
+        <v>0.7805693889096444</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7022795129838546</v>
+        <v>0.6246062837947051</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.71771035995766</v>
+        <v>4.991609530190865</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.02384603546572891</v>
+        <v>0.017867052062893126</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.701793721973094</v>
+        <v>2.101644245142003</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.4267699337118764</v>
+        <v>1.0166936377043303</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7022795129838547</v>
+        <v>0.639653451742054</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.8135604993153265</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.8251048169555399</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.7022795129838546</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.7022795129838546</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.49319651435684</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.7022795129838546</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7022795129838546</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.71771035995766</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.02384603546572891</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.7022795129838546</v>
+        <v>0.7022795129838547</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.49319651435684</v>
+        <v>0.3051545458659548</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7022795129838546</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.49319651435684</v>
-      </c>
+        <v>0.694419723153805</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.5318858866582064</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.5318858866582064</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>2.2724625107376317</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.02711952828089909</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7022795129838546</v>
+        <v>0.5318858866582065</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.41937820997890896</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.780230055396709</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.639653451742054</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.639653451742054</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>3.550212731796018</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.025715298178764313</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.639653451742054</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>223.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9040031824503584</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9225723584044384</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7731351846025036</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7022795129838547</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.6547085201793723</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.3761359861927334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>223.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9392190420204238</v>
+        <v>0.6854224943326338</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9225723584044383</v>
+        <v>0.8359721764297176</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7731351846025036</v>
+        <v>0.6946340009092987</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7022795129838546</v>
+        <v>0.6278956803525463</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9013452914798207</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.2988687109131117</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>223.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.908428859064393</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.901568193103374</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8426552841619416</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7380420543244162</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.6547085201793723</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.3761359861927334</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>223.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9308156441822455</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8600811777228267</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7577051459096877</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7104525688278919</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.7488789237668163</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.7136668704658353</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.09865470852017937</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9013452914798207</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.09865470852017937</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.17937219730941703</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.017937219730941704</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.40358744394618834</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.273542600896861</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.026905829596412557</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.09865470852017937</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.2062780269058296</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.14349775784753363</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.21524663677130046</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.07174887892376682</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.2645739910313901</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8862311112342276</v>
+        <v>0.6787872046981358</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8878525393854566</v>
+        <v>0.8095629874883192</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7983226782668305</v>
+        <v>0.7504557178111501</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7983226782668305</v>
+        <v>0.5862685319717148</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>7.916831415711245</v>
+        <v>4.251080064799185</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.01510046061864859</v>
+        <v>0.017762251865740476</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.2219730941704037</v>
+        <v>2.9162929745889388</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2076377280276143</v>
+        <v>0.7102626858764434</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7983226782668305</v>
+        <v>0.5353197537215326</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7983226782668305</v>
+        <v>0.8178725466440513</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7983226782668305</v>
+        <v>0.8201303657372438</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6373190986351255</v>
+        <v>0.6951025282125374</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7983226782668305</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7983226782668305</v>
-      </c>
+        <v>0.6951025282125376</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>4.559582105666517</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.02417391194520012</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7983226782668305</v>
+        <v>0.6951025282125376</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6373190986351255</v>
+        <v>0.23711928604783905</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7983226782668305</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6373190986351255</v>
-      </c>
+        <v>0.6973397592572443</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.5353197537215325</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.5353197537215326</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.304034905760695</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.02188295764833707</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7983226782668305</v>
+        <v>0.5353197537215326</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.25441103379721697</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.6914277447910129</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.5283833139810745</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.5283833139810745</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.240732059085251</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.023637137302751996</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.5283833139810745</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>223.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9524631539975054</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9482411819433995</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8472431105951692</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7983226782668305</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.336322869955157</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.325045953228907</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>223.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9438445783243457</v>
+        <v>0.6232249794794766</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9482411819433995</v>
+        <v>0.8083565937910283</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8472431105951691</v>
+        <v>0.631907425679668</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7983226782668305</v>
+        <v>0.5777674637834199</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.10762331838565</v>
+        <v>0.9775784753363229</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2218304101492625</v>
+        <v>0.14838306247107708</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>223.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9110425707151917</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8709438241709375</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7871617243487401</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7101708051879312</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.672645739910314</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.0550247403560267</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>223.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.926853767568965</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8736608414053382</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7925317600317648</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7127125702476916</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.098654708520179</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.1621461902979875</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.14798206278026907</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.05829596412556054</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3632286995515695</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.17040358744394618</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.2600896860986547</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.02242152466367713</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9775784753363229</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.02242152466367713</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.04035874439461883</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.30493273542600896</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4439461883408072</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.18834080717488788</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.02242152466367713</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.004484304932735426</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.04484304932735426</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.242152466367713</v>
+      </c>
+      <c r="F27" t="n" s="458">
         <v>0.15246636771300448</v>
       </c>
-      <c r="C24" t="n" s="455">
-        <v>0.06726457399103139</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.47085201793721976</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.13901345291479822</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.17040358744394618</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.5336322869955157</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9836870948069416</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9839774783656567</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9684603022213132</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9684603022213132</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>61.41214852577043</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0021646140305908537</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>2.403587443946188</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>2.180149108510042</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9684603022213133</v>
+      <c r="A6" t="n" s="491">
+        <v>0.681220764693919</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6921897277783853</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.5292738117147091</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.5292738117147091</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>2.2487544771736157</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.04128828637790089</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>2.2757847533632285</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2606112446813027</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.529273811714709</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9684603022213133</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9684603022213133</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9379153569785973</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9684603022213133</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9684603022213133</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9684603022213133</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.529273811714709</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.529273811714709</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.2801307677670175</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.529273811714709</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.529273811714709</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.529273811714709</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9379153569785973</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9684603022213133</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9379153569785973</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9684603022213133</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.2801307677670175</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.529273811714709</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.2801307677670175</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.529273811714709</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>223.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9918105260070093</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9920837419848471</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9763133869818417</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9684603022213133</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>2.367713004484305</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>2.16008793367921</v>
+      <c r="C17" t="n" s="545">
+        <v>0.9024313860722354</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8744351924856151</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.6361621567971985</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.529273811714709</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.9596412556053813</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.597628833221521</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>223.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9923523409269622</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9920837419848471</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9763133869818417</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9684603022213133</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>2.4394618834080717</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>2.23499272972396</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8431745345000937</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8744351924856151</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.6361621567971981</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.5292738117147091</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.591928251121076</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.2802474965750048</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.4349775784753363</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.004484304932735426</v>
-      </c>
-      <c r="D23" t="n" s="570">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.32286995515695066</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.09865470852017937</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.09865470852017937</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.2556053811659193</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.2242152466367713</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="571">
-        <v>0.09417040358744394</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.25112107623318386</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.21524663677130046</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.4349775784753363</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.004484304932735426</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.1210762331838565</v>
-      </c>
-      <c r="F24" t="n" s="572">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
         <v>0.13004484304932734</v>
       </c>
-      <c r="G24" t="n" s="573">
-        <v>0.3094170403587444</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="C24" t="n" s="570">
+        <v>0.08520179372197309</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.06726457399103139</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4977578475336323</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.21973094170403587</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.681220764693919</v>
+        <v>0.8862311112342276</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6921897277783853</v>
+        <v>0.8878525393854566</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.5292738117147091</v>
+        <v>0.7983226782668305</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.5292738117147091</v>
+        <v>0.7983226782668305</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>2.2487544771736157</v>
+        <v>7.916831415711245</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.04128828637790089</v>
+        <v>0.01510046061864859</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>2.2757847533632285</v>
+        <v>2.2219730941704037</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2606112446813027</v>
+        <v>1.2076377280276143</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.529273811714709</v>
+        <v>0.7983226782668305</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.529273811714709</v>
+        <v>0.7983226782668305</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.529273811714709</v>
+        <v>0.7983226782668305</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.2801307677670175</v>
+        <v>0.6373190986351255</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.529273811714709</v>
+        <v>0.7983226782668305</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.529273811714709</v>
+        <v>0.7983226782668305</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.529273811714709</v>
+        <v>0.7983226782668305</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.2801307677670175</v>
+        <v>0.6373190986351255</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.529273811714709</v>
+        <v>0.7983226782668305</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.2801307677670175</v>
+        <v>0.6373190986351255</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.529273811714709</v>
+        <v>0.7983226782668305</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>223.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.9024313860722354</v>
+        <v>0.9524631539975054</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8744351924856151</v>
+        <v>0.9482411819433995</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.6361621567971985</v>
+        <v>0.8472431105951692</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.529273811714709</v>
+        <v>0.7983226782668305</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.9596412556053813</v>
+        <v>2.336322869955157</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.597628833221521</v>
+        <v>1.325045953228907</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>223.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8431745345000937</v>
+        <v>0.9438445783243457</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8744351924856151</v>
+        <v>0.9482411819433995</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.6361621567971981</v>
+        <v>0.8472431105951691</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.5292738117147091</v>
+        <v>0.7983226782668305</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.591928251121076</v>
+        <v>2.10762331838565</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.2802474965750048</v>
+        <v>1.2218304101492625</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.32286995515695066</v>
+        <v>0.14798206278026907</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.09865470852017937</v>
+        <v>0.05829596412556054</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.09865470852017937</v>
+        <v>0.3632286995515695</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.2556053811659193</v>
+        <v>0.17040358744394618</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.2242152466367713</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.13004484304932734</v>
+        <v>0.15246636771300448</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.08520179372197309</v>
+        <v>0.06726457399103139</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.06726457399103139</v>
+        <v>0.47085201793721976</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4977578475336323</v>
+        <v>0.13901345291479822</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.21973094170403587</v>
+        <v>0.17040358744394618</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8410584658723</v>
+        <v>0.8150180217491328</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8589028868492087</v>
+        <v>0.8452584300423387</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9219301506083063</v>
+        <v>0.9161449280696101</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.3783923160065338</v>
+        <v>0.3532693481234534</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>6.087317221942692</v>
+        <v>5.462387581266033</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.015720530894619406</v>
+        <v>0.01642355340103777</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.941255605381166</v>
+        <v>2.311659192825112</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.9572399522917351</v>
+        <v>0.8627154022673151</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.3285868570128388</v>
+        <v>0.2856866057937307</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.8219242559000984</v>
+        <v>0.8014480337361919</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.8355368893306468</v>
+        <v>0.825520868036145</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.9012243715880963</v>
+        <v>0.8962089754574422</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.36081319973664144</v>
+        <v>0.34456527180322005</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>5.080390890881677</v>
+        <v>4.731344423510539</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.01752442701636643</v>
+        <v>0.018366233199786603</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.028688171807544106</v>
+        <v>0.034169114380295885</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.3034946467242814</v>
+        <v>0.30194156237922687</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.8292468836336572</v>
+        <v>0.7752783870318714</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8463496083649722</v>
+        <v>0.8204189371903058</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.9067509001772467</v>
+        <v>0.8935159803984912</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.3796646415060078</v>
+        <v>0.3366997481812064</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>5.508281491239812</v>
+        <v>4.568515879982964</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.01685214531091308</v>
+        <v>0.020685120907771998</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.02774200843518171</v>
+        <v>0.03518887336403241</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.3382802554329509</v>
+        <v>0.28964587584663226</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.8233022908734706</v>
+        <v>0.7814358543072679</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.8387596122821332</v>
+        <v>0.8218104190669389</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.9035767768751599</v>
+        <v>0.8948268470485186</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.366282872836964</v>
+        <v>0.338818708964961</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>5.201920090577851</v>
+        <v>4.612000402962173</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.01746283340832037</v>
+        <v>0.019989727613547493</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.028995637749794405</v>
+        <v>0.03510861622562756</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.3167967484606011</v>
+        <v>0.28964587584663226</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.8274451542977477</v>
+        <v>0.8222351567601978</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.8450066322154142</v>
+        <v>0.8485951679908071</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.9054537780699063</v>
+        <v>0.9186970094524461</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.3772440392523529</v>
+        <v>0.3837646224481453</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>5.451888969790168</v>
+        <v>5.604809019168445</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.017011497650001515</v>
+        <v>0.016727309895778253</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.02738115950851088</v>
+        <v>0.04760528011756178</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.3382802554329509</v>
+        <v>0.30859269264528355</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.8267994816678499</v>
+        <v>0.794366827611882</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.8457657334454346</v>
+        <v>0.8220406141340185</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.9021881421382798</v>
+        <v>0.9004491833070152</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.3786093948466757</v>
+        <v>0.3391711284106165</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>5.483643501142581</v>
+        <v>4.619259670591833</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.016944863462355103</v>
+        <v>0.017931555934429418</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.02808119472453115</v>
+        <v>0.05481085119458331</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.3280966881039745</v>
+        <v>0.2704113938584629</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.828831500582764</v>
+        <v>0.8045191801190259</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8483977337250606</v>
+        <v>0.8335697518085426</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.9042071975835566</v>
+        <v>0.9059975912340132</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.3834014744124343</v>
+        <v>0.3575339883992253</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>5.5962074616117015</v>
+        <v>5.008523155295811</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.016881452998477275</v>
+        <v>0.017089641231477857</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.02746471818521771</v>
+        <v>0.053206536224368564</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.3382802554329509</v>
+        <v>0.30859269264528355</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.8196173583326014</v>
+        <v>0.7992501624563398</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8465045834920851</v>
+        <v>0.83606886999237</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8861666128835729</v>
+        <v>0.9140109041372667</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.3799454736573859</v>
+        <v>0.3617076801183951</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>5.51485251319173</v>
+        <v>5.100122654882305</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.018339999393759323</v>
+        <v>0.01746148465633303</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.022772739911464508</v>
+        <v>0.056297369609188415</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.3372553406116309</v>
+        <v>0.2771451230295737</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.8235333882702395</v>
+        <v>0.8011958634872837</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8474441754062098</v>
+        <v>0.8350309415329784</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8865663289757018</v>
+        <v>0.9112870216217552</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.38165483315224286</v>
+        <v>0.3599655364728973</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>5.554977515035533</v>
+        <v>5.061742785541249</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.017922098001428886</v>
+        <v>0.01700842097893829</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.022294721941694542</v>
+        <v>0.0554137080940295</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.3382846505949452</v>
+        <v>0.2846510845677378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8315751392189418</v>
+        <v>0.7959244505512464</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8521803568373612</v>
+        <v>0.8319317104760358</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9214752670020598</v>
+        <v>0.8957040623100916</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3904504212739835</v>
+        <v>0.35483696983532276</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>5.765000771242213</v>
+        <v>4.949962380365718</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.016767761727377064</v>
+        <v>0.017424442055486575</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.03227329052828184</v>
+        <v>0.051066639173576414</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.34592821937241736</v>
+        <v>0.28964587584663226</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.8307732193703012</v>
+        <v>0.7968259960226562</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8497271693065271</v>
+        <v>0.8324151619040598</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9184124600744578</v>
+        <v>0.8970481104592833</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.38585680939064954</v>
+        <v>0.3556298266005441</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>5.654562873310108</v>
+        <v>4.9671269272433385</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.016614149972508485</v>
+        <v>0.017508001592911326</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.03145714794737822</v>
+        <v>0.05161930825900998</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.3280966881039745</v>
+        <v>0.28964587584663226</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>223.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.7034404951491129</v>
+        <v>0.7663886675105579</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7590872775580889</v>
+        <v>0.6949539828252526</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7390204671989666</v>
+        <v>0.7172863384420218</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.6407771078712767</v>
+        <v>0.7409704724989435</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.672645739910314</v>
+        <v>0.5650224215246636</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.0550247403560267</v>
+        <v>0.49686936528797726</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>223.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6024848450506853</v>
+        <v>0.8130020828413136</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6568408957470472</v>
+        <v>0.7387537616433687</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6246874644605606</v>
+        <v>0.7649360020109429</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5162311074949408</v>
+        <v>0.6948736721943272</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>4.098654708520179</v>
+        <v>2.367713004484305</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.1621461902979875</v>
+        <v>2.16008793367921</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>223.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6819268457959136</v>
+        <v>0.7995694732756252</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.7294208843432235</v>
+        <v>0.7269541640434118</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.7043927402828594</v>
+        <v>0.7516406804813514</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.614041082980347</v>
+        <v>0.6689567548531111</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.695067264573991</v>
+        <v>2.4394618834080717</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0806749934189475</v>
+        <v>2.23499272972396</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>223.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6226170028967823</v>
+        <v>0.32578133873183124</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.66996974951154</v>
+        <v>0.476669356070556</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6409317813454554</v>
+        <v>0.396385043831443</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5330953338705491</v>
+        <v>0.31027913280184743</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>4.143497757847534</v>
+        <v>0.9775784753363229</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.240110558404783</v>
+        <v>0.14838306247107708</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>223.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6303879306855166</v>
+        <v>0.6505506636312269</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6625643387682716</v>
+        <v>0.724991689005169</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6385479866103653</v>
+        <v>0.6943237654642683</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5353006949581829</v>
+        <v>0.5710189654079769</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.336322869955157</v>
+        <v>3.672645739910314</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.325045953228907</v>
+        <v>1.0550247403560267</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>223.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.607013957662646</v>
+        <v>0.5433769797542137</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6365730749199195</v>
+        <v>0.6227366778170907</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.6092637734184025</v>
+        <v>0.5783600662473718</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5165211786375382</v>
+        <v>0.43769873974319773</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.10762331838565</v>
+        <v>4.098654708520179</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2218304101492625</v>
+        <v>1.1621461902979875</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>223.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.7603287446999663</v>
+        <v>0.6275032365516378</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.6553177193382652</v>
+        <v>0.5994951515132336</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.6736623167429373</v>
+        <v>0.5235940755042965</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.6355349733990171</v>
+        <v>0.49394428980766064</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>2.367713004484305</v>
+        <v>1.9596412556053813</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>2.16008793367921</v>
+        <v>1.597628833221521</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>223.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.7515639448827373</v>
+        <v>0.5818228342395196</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.6460465014812056</v>
+        <v>0.6091964136299263</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.6639526152818462</v>
+        <v>0.5438649938347806</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.6176567520384195</v>
+        <v>0.4702985411811174</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>2.4394618834080717</v>
+        <v>2.591928251121076</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>2.23499272972396</v>
+        <v>1.2802474965750048</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>223.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.6075599334372558</v>
+        <v>0.6290004688116094</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.598341022380421</v>
+        <v>0.6377552350351595</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.5212472666913641</v>
+        <v>0.61204029146036</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.4851357086253195</v>
+        <v>0.5217132765759531</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.9596412556053813</v>
+        <v>2.336322869955157</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.597628833221521</v>
+        <v>1.325045953228907</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>223.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.586830645108821</v>
+        <v>0.6188674268233474</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.6232558379293487</v>
+        <v>0.6333401505957779</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.5573554224175191</v>
+        <v>0.6054263863680492</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.48831583834861675</v>
+        <v>0.5192431082125994</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.591928251121076</v>
+        <v>2.10762331838565</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.2802474965750048</v>
+        <v>1.2218304101492625</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.02242152466367713</v>
+        <v>0.4349775784753363</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.04035874439461883</v>
+        <v>0.5650224215246636</v>
       </c>
       <c r="D39" t="n" s="799">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.30493273542600896</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4439461883408072</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.18834080717488788</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.02242152466367713</v>
+        <v>0.4349775784753363</v>
       </c>
       <c r="C40" t="n" s="798">
         <v>0.004484304932735426</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.04484304932735426</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.242152466367713</v>
+        <v>0.09417040358744394</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.15246636771300448</v>
+        <v>0.25112107623318386</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.5336322869955157</v>
+        <v>0.21524663677130046</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.017937219730941704</v>
+        <v>0.4349775784753363</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.04932735426008968</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.008968609865470852</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.27802690582959644</v>
+        <v>0.1210762331838565</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.4349775784753363</v>
+        <v>0.13004484304932734</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.21076233183856502</v>
+        <v>0.3094170403587444</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.017937219730941704</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.013452914798206279</v>
+        <v>0.9775784753363229</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.06726457399103139</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.242152466367713</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.026905829596412557</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.6322869955156951</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.14798206278026907</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.05829596412556054</v>
+        <v>0.04035874439461883</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.3632286995515695</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.17040358744394618</v>
+        <v>0.30493273542600896</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.2600896860986547</v>
+        <v>0.4439461883408072</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.18834080717488788</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
+        <v>0.02242152466367713</v>
+      </c>
+      <c r="C44" t="n" s="798">
+        <v>0.004484304932735426</v>
+      </c>
+      <c r="D44" t="n" s="799">
+        <v>0.04484304932735426</v>
+      </c>
+      <c r="E44" t="n" s="800">
+        <v>0.242152466367713</v>
+      </c>
+      <c r="F44" t="n" s="801">
         <v>0.15246636771300448</v>
       </c>
-      <c r="C44" t="n" s="798">
-        <v>0.06726457399103139</v>
-      </c>
-      <c r="D44" t="n" s="799">
-        <v>0.47085201793721976</v>
-      </c>
-      <c r="E44" t="n" s="800">
-        <v>0.13901345291479822</v>
-      </c>
-      <c r="F44" t="n" s="801">
-        <v>0.17040358744394618</v>
-      </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.5336322869955157</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.4349775784753363</v>
+        <v>0.32286995515695066</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.004484304932735426</v>
+        <v>0.09865470852017937</v>
       </c>
       <c r="D45" t="n" s="799">
+        <v>0.09865470852017937</v>
+      </c>
+      <c r="E45" t="n" s="800">
+        <v>0.2556053811659193</v>
+      </c>
+      <c r="F45" t="n" s="801">
+        <v>0.2242152466367713</v>
+      </c>
+      <c r="G45" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="800">
-        <v>0.09417040358744394</v>
-      </c>
-      <c r="F45" t="n" s="801">
-        <v>0.25112107623318386</v>
-      </c>
-      <c r="G45" t="n" s="802">
-        <v>0.21524663677130046</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.4349775784753363</v>
+        <v>0.13004484304932734</v>
       </c>
       <c r="C46" t="n" s="798">
+        <v>0.08520179372197309</v>
+      </c>
+      <c r="D46" t="n" s="799">
+        <v>0.06726457399103139</v>
+      </c>
+      <c r="E46" t="n" s="800">
+        <v>0.4977578475336323</v>
+      </c>
+      <c r="F46" t="n" s="801">
+        <v>0.21973094170403587</v>
+      </c>
+      <c r="G46" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="799">
-        <v>0.004484304932735426</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.1210762331838565</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.13004484304932734</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.3094170403587444</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.32286995515695066</v>
+        <v>0.14798206278026907</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.09865470852017937</v>
+        <v>0.05829596412556054</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.09865470852017937</v>
+        <v>0.3632286995515695</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.2556053811659193</v>
+        <v>0.17040358744394618</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.2242152466367713</v>
+        <v>0.2600896860986547</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.13004484304932734</v>
+        <v>0.15246636771300448</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.08520179372197309</v>
+        <v>0.06726457399103139</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.06726457399103139</v>
+        <v>0.47085201793721976</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4977578475336323</v>
+        <v>0.13901345291479822</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.21973094170403587</v>
+        <v>0.17040358744394618</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
